--- a/Data Files/Excel Files/Z-Connect.xlsx
+++ b/Data Files/Excel Files/Z-Connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Create Combined Statement" sheetId="22" r:id="rId1"/>
@@ -24683,8 +24683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25491,8 +25491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25521,7 +25521,7 @@
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -25533,15 +25533,15 @@
         <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -25559,6 +25559,7 @@
       <c r="E3" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -25568,7 +25569,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="14" t="s">
         <v>1859</v>
       </c>
     </row>

--- a/Data Files/Excel Files/Z-Connect.xlsx
+++ b/Data Files/Excel Files/Z-Connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="32" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create Combined Statement" sheetId="22" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="3083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="3081">
   <si>
     <t>Y</t>
   </si>
@@ -7707,12 +7707,6 @@
   </si>
   <si>
     <t>Invalid account Type</t>
-  </si>
-  <si>
-    <t>64629</t>
-  </si>
-  <si>
-    <t>CISX SCRN SETUP NOT FND FOR CO</t>
   </si>
   <si>
     <t>Relate Account To Address API</t>
@@ -13984,7 +13978,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>
@@ -18045,7 +18039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -18480,10 +18474,10 @@
         <v>6</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>2524</v>
+        <v>1820</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>2525</v>
+        <v>1821</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>61</v>
@@ -24686,10 +24680,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="15" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
   </sheetData>
@@ -26598,7 +26592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -26714,16 +26708,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>195</v>
@@ -26779,16 +26773,16 @@
         <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>195</v>
@@ -26844,16 +26838,16 @@
         <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>195</v>
@@ -44625,7 +44619,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -44729,7 +44723,7 @@
         <v>806</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>38</v>
@@ -44754,10 +44748,10 @@
         <v>6</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>61</v>
@@ -44765,7 +44759,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -44798,7 +44792,7 @@
         <v>806</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>38</v>
@@ -44823,10 +44817,10 @@
         <v>6</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>61</v>
@@ -44834,7 +44828,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -44867,7 +44861,7 @@
         <v>806</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>38</v>
@@ -44876,7 +44870,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>29</v>
@@ -44892,10 +44886,10 @@
         <v>6</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>61</v>
@@ -44903,7 +44897,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -44936,7 +44930,7 @@
         <v>806</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>38</v>
@@ -44964,7 +44958,7 @@
         <v>1936</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>61</v>
@@ -44972,7 +44966,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -45005,7 +44999,7 @@
         <v>806</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>38</v>
@@ -45033,7 +45027,7 @@
         <v>1936</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>61</v>
@@ -45041,7 +45035,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -45102,7 +45096,7 @@
         <v>1936</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>61</v>
@@ -45168,10 +45162,10 @@
         <v>6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>61</v>
@@ -45179,7 +45173,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -45212,7 +45206,7 @@
         <v>806</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>38</v>
@@ -45240,7 +45234,7 @@
         <v>1936</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>61</v>
@@ -45248,7 +45242,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -45281,7 +45275,7 @@
         <v>806</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>38</v>
@@ -45309,7 +45303,7 @@
         <v>1936</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>61</v>
@@ -45317,7 +45311,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -45350,7 +45344,7 @@
         <v>806</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>38</v>
@@ -45378,7 +45372,7 @@
         <v>1936</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>61</v>
@@ -45386,7 +45380,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -45419,7 +45413,7 @@
         <v>806</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>38</v>
@@ -45447,7 +45441,7 @@
         <v>1936</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>61</v>
@@ -45455,7 +45449,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -45488,7 +45482,7 @@
         <v>806</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>38</v>
@@ -45516,7 +45510,7 @@
         <v>1936</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>61</v>
@@ -45524,7 +45518,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -45557,7 +45551,7 @@
         <v>408</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>38</v>
@@ -45585,7 +45579,7 @@
         <v>1936</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>61</v>
@@ -45634,7 +45628,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -45661,43 +45655,43 @@
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>127</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>2559</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>2560</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2561</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2562</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>2563</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>2564</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>2565</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>2566</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -45708,7 +45702,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
@@ -45726,40 +45720,40 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J2" s="4">
         <v>3606339668</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>2578</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>2580</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>328</v>
@@ -45771,7 +45765,7 @@
         <v>18</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -45782,7 +45776,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
@@ -45800,40 +45794,40 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>2578</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>2580</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>328</v>
@@ -45845,7 +45839,7 @@
         <v>18</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -45856,7 +45850,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>228</v>
@@ -45874,40 +45868,40 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>2578</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>2580</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>328</v>
@@ -45919,7 +45913,7 @@
         <v>18</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -45930,7 +45924,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>228</v>
@@ -45948,37 +45942,37 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>2571</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>2573</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>513</v>
@@ -45990,7 +45984,7 @@
         <v>16</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -46002,7 +45996,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>228</v>
@@ -46020,37 +46014,37 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>2566</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>2568</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2570</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>298</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>2571</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>2573</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>513</v>
@@ -46062,7 +46056,7 @@
         <v>16</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -46074,7 +46068,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>228</v>
@@ -46092,40 +46086,40 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>2578</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>2580</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>328</v>
@@ -46146,7 +46140,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>228</v>
@@ -46164,40 +46158,40 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>2578</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>2580</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>328</v>
@@ -46209,7 +46203,7 @@
         <v>18</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -46220,7 +46214,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>228</v>
@@ -46238,37 +46232,37 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>2566</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>2568</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>2570</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>298</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>2571</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>2573</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>513</v>
@@ -46280,7 +46274,7 @@
         <v>16</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -46292,7 +46286,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>6</v>
@@ -46309,16 +46303,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -46327,34 +46321,34 @@
         <v>300</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>2586</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>2587</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>2588</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>2589</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>2590</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>1896</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="Q11" s="25" t="s">
         <v>35</v>
@@ -46369,10 +46363,10 @@
         <v>357</v>
       </c>
       <c r="U11" s="25" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="V11" s="81" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
   </sheetData>
@@ -46385,8 +46379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50001,283 +49995,283 @@
         <v>891</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2594</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2595</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2596</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2597</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2598</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2599</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2600</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>2449</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>2603</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>2604</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>2605</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>2607</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>2608</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2609</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>2611</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>2612</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>2613</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>2614</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>2616</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>2618</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>2619</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>2622</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>2626</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>2627</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>2628</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>2629</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>2630</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>2631</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>2632</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>2633</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>2634</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>2635</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>2636</v>
       </c>
       <c r="AY1" s="2" t="s">
         <v>2482</v>
       </c>
       <c r="AZ1" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>2637</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>2638</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>2639</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>2640</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>2641</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>2643</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>2644</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>2645</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>2647</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>2648</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>2649</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>2650</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>2652</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>2653</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>2654</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>2656</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>2657</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>2658</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>2659</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>2660</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>2661</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>2662</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>2664</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>2666</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>2667</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>2670</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>2672</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>2673</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>2676</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>2677</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>2678</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>2679</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>2680</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>2681</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>2682</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>2683</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
@@ -50297,7 +50291,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>29</v>
@@ -50345,16 +50339,16 @@
         <v>300</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>2687</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>2688</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>2689</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>2690</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>29</v>
@@ -50456,7 +50450,7 @@
         <v>29</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="BH2" s="4" t="s">
         <v>520</v>
@@ -50483,7 +50477,7 @@
         <v>6</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="BQ2" s="3" t="s">
         <v>12</v>
@@ -50531,7 +50525,7 @@
         <v>35</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="CG2" s="4" t="s">
         <v>29</v>
@@ -50576,7 +50570,7 @@
         <v>2472</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.25">
@@ -50596,7 +50590,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>524</v>
@@ -50644,16 +50638,16 @@
         <v>300</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>2687</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>2688</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>2689</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>2690</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>745</v>
@@ -50713,7 +50707,7 @@
         <v>1993</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>29</v>
@@ -50755,7 +50749,7 @@
         <v>29</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="BH3" s="4" t="s">
         <v>520</v>
@@ -50782,7 +50776,7 @@
         <v>6</v>
       </c>
       <c r="BP3" s="7" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="BQ3" s="3" t="s">
         <v>12</v>
@@ -50830,7 +50824,7 @@
         <v>35</v>
       </c>
       <c r="CF3" s="4" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="CG3" s="4" t="s">
         <v>29</v>
@@ -50875,7 +50869,7 @@
         <v>2472</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.25">
@@ -51704,7 +51698,7 @@
     </row>
     <row r="12" spans="1:99" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -51833,7 +51827,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>107</v>
@@ -51845,10 +51839,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>2411</v>
@@ -51871,7 +51865,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -51881,10 +51875,10 @@
         <v>745</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2416</v>
@@ -51894,7 +51888,7 @@
         <v>228</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>1873</v>
@@ -51905,7 +51899,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -51930,7 +51924,7 @@
         <v>228</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>1873</v>
@@ -51941,7 +51935,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -51953,10 +51947,10 @@
         <v>745</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2416</v>
@@ -51977,7 +51971,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -51989,10 +51983,10 @@
         <v>745</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2417</v>
@@ -52013,7 +52007,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -52025,10 +52019,10 @@
         <v>745</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2417</v>
@@ -52086,7 +52080,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>107</v>
@@ -52101,31 +52095,31 @@
         <v>17</v>
       </c>
       <c r="F1" s="63" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>2559</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>2560</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>2561</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>2562</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="L1" s="63" t="s">
         <v>2563</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="M1" s="63" t="s">
         <v>2564</v>
       </c>
-      <c r="L1" s="63" t="s">
-        <v>2565</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>2566</v>
-      </c>
       <c r="N1" s="63" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>274</v>
@@ -52148,7 +52142,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -52159,19 +52153,19 @@
         <v>787</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>408</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>408</v>
@@ -52190,7 +52184,7 @@
         <v>228</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>1873</v>
@@ -52202,7 +52196,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -52215,10 +52209,10 @@
         <v>787</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>408</v>
@@ -52258,7 +52252,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -52269,19 +52263,19 @@
         <v>787</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>408</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>408</v>
@@ -52300,7 +52294,7 @@
         <v>228</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>1873</v>
@@ -52312,7 +52306,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>408</v>
@@ -52325,19 +52319,19 @@
         <v>787</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>408</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>408</v>
@@ -52368,7 +52362,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>408</v>
@@ -52381,19 +52375,19 @@
         <v>787</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>408</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>408</v>
@@ -52424,29 +52418,29 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>787</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>408</v>
@@ -52480,7 +52474,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>408</v>
@@ -52493,10 +52487,10 @@
         <v>787</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>408</v>
@@ -52505,7 +52499,7 @@
         <v>408</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>1347</v>
@@ -52536,7 +52530,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>408</v>
@@ -52551,10 +52545,10 @@
         <v>787</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>408</v>
@@ -52575,7 +52569,7 @@
         <v>408</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="4" t="s">
@@ -52596,7 +52590,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>300</v>
@@ -52609,10 +52603,10 @@
         <v>733</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>408</v>
@@ -52650,7 +52644,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>300</v>
@@ -52663,16 +52657,16 @@
         <v>733</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>2589</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>2590</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2591</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
@@ -52685,7 +52679,7 @@
         <v>752</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="4" t="s">
@@ -52749,76 +52743,76 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="C1" s="82" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>2779</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="F1" s="82" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>2811</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>2780</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>2812</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>2778</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>2814</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>2815</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>2816</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>2817</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>2818</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>2857</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>2819</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>2858</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>2855</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>2856</v>
+      </c>
+      <c r="X1" s="82" t="s">
         <v>2809</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>2781</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>2810</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>2812</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>2813</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>2782</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>2814</v>
-      </c>
-      <c r="K1" s="82" t="s">
-        <v>2836</v>
-      </c>
-      <c r="L1" s="82" t="s">
-        <v>2815</v>
-      </c>
-      <c r="M1" s="82" t="s">
-        <v>2780</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>2816</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>2817</v>
-      </c>
-      <c r="P1" s="82" t="s">
-        <v>2818</v>
-      </c>
-      <c r="Q1" s="82" t="s">
-        <v>2819</v>
-      </c>
-      <c r="R1" s="82" t="s">
-        <v>2820</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>2859</v>
-      </c>
-      <c r="T1" s="82" t="s">
-        <v>2821</v>
-      </c>
-      <c r="U1" s="82" t="s">
-        <v>2860</v>
-      </c>
-      <c r="V1" s="82" t="s">
-        <v>2857</v>
-      </c>
-      <c r="W1" s="82" t="s">
-        <v>2858</v>
-      </c>
-      <c r="X1" s="82" t="s">
-        <v>2811</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>274</v>
@@ -52838,25 +52832,25 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>37</v>
@@ -52868,10 +52862,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>26</v>
@@ -52915,25 +52909,25 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>37</v>
@@ -52945,10 +52939,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>26</v>
@@ -52992,19 +52986,19 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -53022,13 +53016,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>398</v>
@@ -53069,25 +53063,25 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>37</v>
@@ -53099,10 +53093,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>26</v>
@@ -53114,7 +53108,7 @@
         <v>2196</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>6</v>
@@ -53146,25 +53140,25 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>37</v>
@@ -53176,10 +53170,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>26</v>
@@ -53191,7 +53185,7 @@
         <v>2196</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>6</v>
@@ -53223,7 +53217,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -53233,13 +53227,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>37</v>
@@ -53251,10 +53245,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>26</v>
@@ -53266,7 +53260,7 @@
         <v>2196</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>6</v>
@@ -53287,10 +53281,10 @@
         <v>172</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>61</v>
@@ -53298,25 +53292,25 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>37</v>
@@ -53328,10 +53322,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>26</v>
@@ -53343,7 +53337,7 @@
         <v>2196</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>298</v>
@@ -53364,10 +53358,10 @@
         <v>172</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>61</v>
@@ -53375,13 +53369,13 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
@@ -53393,7 +53387,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
@@ -53405,10 +53399,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
@@ -53420,7 +53414,7 @@
         <v>2196</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>298</v>
@@ -53441,10 +53435,10 @@
         <v>172</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>61</v>
@@ -53452,23 +53446,23 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>37</v>
@@ -53480,10 +53474,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>26</v>
@@ -53495,7 +53489,7 @@
         <v>2196</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>298</v>
@@ -53516,10 +53510,10 @@
         <v>172</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>61</v>
@@ -53527,25 +53521,25 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>524</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -53575,7 +53569,7 @@
         <v>172</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>831</v>
@@ -53864,28 +53858,28 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="82" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>2807</v>
+      </c>
+      <c r="G1" s="82" t="s">
         <v>2779</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E1" s="82" t="s">
+      <c r="H1" s="82" t="s">
         <v>2808</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>2809</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>2781</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>2810</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>274</v>
@@ -53906,7 +53900,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -53928,10 +53922,10 @@
         <v>172</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>61</v>
@@ -53940,11 +53934,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -53964,10 +53958,10 @@
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>61</v>
@@ -53976,11 +53970,11 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -53992,7 +53986,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -54002,10 +53996,10 @@
         <v>6</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>61</v>
@@ -54014,11 +54008,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -54036,10 +54030,10 @@
         <v>172</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>61</v>
@@ -54048,11 +54042,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -54072,10 +54066,10 @@
         <v>172</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>61</v>
@@ -54084,11 +54078,11 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -54098,7 +54092,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -54108,10 +54102,10 @@
         <v>6</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>61</v>
@@ -54120,13 +54114,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -54134,7 +54128,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
@@ -54144,10 +54138,10 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>61</v>
@@ -54156,13 +54150,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -54170,7 +54164,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -54225,7 +54219,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>107</v>
@@ -54237,25 +54231,25 @@
         <v>17</v>
       </c>
       <c r="E1" s="63" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>2561</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>2562</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>2563</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>2564</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>2565</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>2566</v>
-      </c>
       <c r="K1" s="63" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>274</v>
@@ -54275,7 +54269,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -54287,10 +54281,10 @@
         <v>745</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>754</v>
@@ -54299,7 +54293,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>189</v>
@@ -54323,7 +54317,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -54335,10 +54329,10 @@
         <v>745</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -54351,7 +54345,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="4" t="s">
@@ -54369,7 +54363,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -54381,10 +54375,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>29</v>
@@ -54399,17 +54393,17 @@
         <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>61</v>
@@ -54417,7 +54411,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -54429,10 +54423,10 @@
         <v>192</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -54447,17 +54441,17 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>61</v>
@@ -54465,7 +54459,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -54477,10 +54471,10 @@
         <v>192</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -54495,7 +54489,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="4" t="s">
@@ -54505,7 +54499,7 @@
         <v>684</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>61</v>
@@ -54513,7 +54507,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -54525,10 +54519,10 @@
         <v>192</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
@@ -54541,7 +54535,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="4" t="s">
@@ -54559,7 +54553,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -54571,10 +54565,10 @@
         <v>192</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
@@ -54589,17 +54583,17 @@
         <v>6</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>61</v>
@@ -54640,7 +54634,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>5</v>
@@ -54664,7 +54658,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="82" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="J1" s="82" t="s">
         <v>2449</v>
@@ -54679,30 +54673,30 @@
         <v>2452</v>
       </c>
       <c r="N1" s="82" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="O1" s="82" t="s">
+        <v>2959</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Q1" s="82" t="s">
         <v>2961</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="R1" s="82" t="s">
         <v>2962</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="S1" s="82" t="s">
         <v>2963</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="T1" s="82" t="s">
         <v>2964</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>2965</v>
-      </c>
-      <c r="T1" s="82" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
@@ -54750,21 +54744,21 @@
         <v>287</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>2965</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>2967</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>2968</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>2969</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>2970</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
@@ -54812,21 +54806,21 @@
         <v>1405</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>2971</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>2972</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>2973</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>228</v>
@@ -54874,21 +54868,21 @@
         <v>301</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>2974</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>2976</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>2977</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>228</v>
@@ -54930,27 +54924,27 @@
         <v>29</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>2979</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>2980</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>2971</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>2972</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>2981</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>2982</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>228</v>
@@ -54992,27 +54986,27 @@
         <v>29</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>2979</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>2980</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>2971</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>2972</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>2981</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>2982</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>228</v>
@@ -55044,7 +55038,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>228</v>
@@ -55092,21 +55086,21 @@
         <v>1405</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>228</v>
@@ -55127,7 +55121,7 @@
         <v>351</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>29</v>
@@ -55168,7 +55162,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>228</v>
@@ -55200,7 +55194,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>228</v>
@@ -55232,7 +55226,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>228</v>
@@ -55302,7 +55296,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -55326,10 +55320,10 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2450</v>
@@ -55341,42 +55335,42 @@
         <v>2452</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2997</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>2999</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>3000</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>3001</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3002</v>
-      </c>
       <c r="U1" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>2963</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>2964</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
@@ -55436,13 +55430,13 @@
         <v>1893</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>351</v>
@@ -55450,7 +55444,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
@@ -55510,13 +55504,13 @@
         <v>1893</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>351</v>
@@ -55524,7 +55518,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>228</v>
@@ -55587,7 +55581,7 @@
         <v>303</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>306</v>
@@ -55598,7 +55592,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>228</v>
@@ -55661,7 +55655,7 @@
         <v>303</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>306</v>
@@ -55672,7 +55666,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>228</v>
@@ -55681,7 +55675,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
@@ -55708,7 +55702,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -55744,7 +55738,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>228</v>
@@ -55807,7 +55801,7 @@
         <v>303</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>306</v>
@@ -55818,7 +55812,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>228</v>
@@ -55878,21 +55872,21 @@
         <v>513</v>
       </c>
       <c r="U9" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>3007</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>3009</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>228</v>
@@ -55928,7 +55922,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>228</v>
@@ -56014,7 +56008,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -56038,7 +56032,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2482</v>
@@ -56062,66 +56056,66 @@
         <v>2451</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>3012</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>3014</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>3029</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>3027</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3016</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>3031</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>3030</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>3017</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>3018</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>3019</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>3020</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>3021</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>3022</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>3023</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
@@ -56172,7 +56166,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>520</v>
@@ -56206,7 +56200,7 @@
         <v>6</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>12</v>
@@ -56214,7 +56208,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
@@ -56253,7 +56247,7 @@
         <v>2196</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>755</v>
@@ -56265,10 +56259,10 @@
         <v>29</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>83</v>
@@ -56277,10 +56271,10 @@
         <v>2186</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>787</v>
@@ -56289,16 +56283,16 @@
         <v>733</v>
       </c>
       <c r="Z3" s="10" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>3031</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>3032</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>3033</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>3034</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>3035</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>83</v>
@@ -56366,7 +56360,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -56390,10 +56384,10 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2484</v>
@@ -56408,57 +56402,57 @@
         <v>2451</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>3017</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3043</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>2963</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>2964</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>2966</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>3019</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>3020</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>3021</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>3022</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>3023</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
@@ -56500,7 +56494,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
@@ -56542,7 +56536,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>228</v>
@@ -56584,7 +56578,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>228</v>
@@ -56626,7 +56620,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>228</v>
@@ -56668,7 +56662,7 @@
         <v>35</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>29</v>
@@ -56713,7 +56707,7 @@
         <v>2472</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
   </sheetData>
@@ -56754,7 +56748,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -56778,10 +56772,10 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2450</v>
@@ -56790,39 +56784,39 @@
         <v>2451</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>3052</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>3053</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>3054</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2617</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>3055</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2966</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>293</v>
@@ -56848,13 +56842,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>293</v>
@@ -56880,7 +56874,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>228</v>
@@ -56912,7 +56906,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>228</v>
@@ -56963,10 +56957,10 @@
         <v>109</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>6</v>
@@ -57009,7 +57003,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>107</v>
@@ -57024,34 +57018,34 @@
         <v>2450</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3053</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2617</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3000</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3055</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>2963</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2964</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2966</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>274</v>
@@ -57071,7 +57065,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -57107,7 +57101,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -57153,7 +57147,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -57199,7 +57193,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -57211,7 +57205,7 @@
         <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -57247,7 +57241,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -57268,10 +57262,10 @@
         <v>189</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>298</v>
@@ -57513,7 +57507,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>107</v>
@@ -57534,7 +57528,7 @@
         <v>2452</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>274</v>
@@ -57554,7 +57548,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -57576,7 +57570,7 @@
         <v>228</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>293</v>
@@ -57587,7 +57581,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -57609,7 +57603,7 @@
         <v>228</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>293</v>
@@ -57620,7 +57614,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -57644,7 +57638,7 @@
         <v>228</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>293</v>
@@ -57655,7 +57649,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -57670,7 +57664,7 @@
         <v>995</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>29</v>
@@ -57694,7 +57688,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -57720,7 +57714,7 @@
         <v>228</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>293</v>
@@ -57731,7 +57725,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -57770,7 +57764,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -57869,7 +57863,7 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -57896,111 +57890,111 @@
         <v>1136</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>2732</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2733</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>2734</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>2735</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>2736</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2737</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>2738</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>2739</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>2740</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2741</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>2742</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>2743</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>2745</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>2746</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>2747</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>2748</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>2749</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>2750</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>2751</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>2753</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>2755</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>2757</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>2758</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>2759</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>2760</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>2762</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>2763</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>172</v>
@@ -58129,7 +58123,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>172</v>
@@ -58150,10 +58144,10 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
@@ -58166,7 +58160,7 @@
         <v>6</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>6</v>
@@ -58258,7 +58252,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>172</v>
@@ -58387,7 +58381,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>172</v>
@@ -58408,7 +58402,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>1367</v>
@@ -58804,7 +58798,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -58834,7 +58828,7 @@
         <v>127</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>107</v>
@@ -58846,21 +58840,21 @@
         <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2780</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2781</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>172</v>
@@ -58877,16 +58871,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>61</v>
@@ -58901,13 +58895,13 @@
         <v>280</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>315</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>14</v>
@@ -58919,13 +58913,13 @@
         <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>22</v>
@@ -58933,16 +58927,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>61</v>
@@ -58957,13 +58951,13 @@
         <v>280</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>726</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>14</v>
@@ -58975,13 +58969,13 @@
         <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>22</v>
@@ -58989,16 +58983,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -59013,13 +59007,13 @@
         <v>280</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>315</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>14</v>
@@ -59031,13 +59025,13 @@
         <v>18</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>22</v>
@@ -59045,16 +59039,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
@@ -59073,7 +59067,7 @@
         <v>1993</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>14</v>
@@ -59082,16 +59076,16 @@
         <v>16</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>22</v>
@@ -59099,16 +59093,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>61</v>
@@ -59137,13 +59131,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>961</v>
@@ -59214,7 +59208,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -59229,90 +59223,90 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2807</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2808</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2809</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2781</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2810</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2811</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>2812</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2813</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>2782</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>2814</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>2836</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>2815</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>2780</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>2816</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2817</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>2818</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>2819</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2820</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>2821</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>2822</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>2735</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>2823</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>2824</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>2825</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>2826</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>2827</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>2828</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>172</v>
@@ -59327,13 +59321,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>29</v>
@@ -59342,7 +59336,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>29</v>
@@ -59358,10 +59352,10 @@
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>1452</v>
@@ -59373,7 +59367,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>6</v>
@@ -59385,7 +59379,7 @@
         <v>35</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>29</v>
@@ -59394,13 +59388,13 @@
         <v>189</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>1367</v>
@@ -59408,7 +59402,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>172</v>
@@ -59423,7 +59417,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -59432,13 +59426,13 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>345</v>
@@ -59453,13 +59447,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>109</v>
@@ -59480,7 +59474,7 @@
         <v>1452</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>6</v>
@@ -59504,16 +59498,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>61</v>
@@ -59548,16 +59542,16 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -59592,16 +59586,16 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
@@ -59636,16 +59630,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>61</v>
@@ -59680,7 +59674,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>172</v>
@@ -59695,13 +59689,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>29</v>
@@ -59710,7 +59704,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>29</v>
@@ -59725,13 +59719,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1452</v>
@@ -59743,7 +59737,7 @@
         <v>109</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>6</v>
@@ -59755,7 +59749,7 @@
         <v>35</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>29</v>
@@ -59764,13 +59758,13 @@
         <v>189</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>1367</v>
@@ -59778,7 +59772,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -59868,76 +59862,76 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="83" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>2779</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="G1" s="83" t="s">
+        <v>2856</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>2808</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>2810</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>2811</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>2812</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P1" s="83" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Q1" s="83" t="s">
+        <v>2814</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>2815</v>
+      </c>
+      <c r="S1" s="83" t="s">
+        <v>2816</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>2817</v>
+      </c>
+      <c r="U1" s="83" t="s">
+        <v>2818</v>
+      </c>
+      <c r="V1" s="83" t="s">
         <v>2857</v>
       </c>
-      <c r="E1" s="83" t="s">
-        <v>2809</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>2781</v>
-      </c>
-      <c r="G1" s="83" t="s">
+      <c r="W1" s="83" t="s">
+        <v>2819</v>
+      </c>
+      <c r="X1" s="83" t="s">
         <v>2858</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>2810</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>2811</v>
-      </c>
-      <c r="J1" s="83" t="s">
-        <v>2812</v>
-      </c>
-      <c r="K1" s="83" t="s">
-        <v>2813</v>
-      </c>
-      <c r="L1" s="83" t="s">
-        <v>2782</v>
-      </c>
-      <c r="M1" s="83" t="s">
-        <v>2814</v>
-      </c>
-      <c r="N1" s="83" t="s">
-        <v>2836</v>
-      </c>
-      <c r="O1" s="83" t="s">
-        <v>2815</v>
-      </c>
-      <c r="P1" s="83" t="s">
-        <v>2780</v>
-      </c>
-      <c r="Q1" s="83" t="s">
-        <v>2816</v>
-      </c>
-      <c r="R1" s="83" t="s">
-        <v>2817</v>
-      </c>
-      <c r="S1" s="83" t="s">
-        <v>2818</v>
-      </c>
-      <c r="T1" s="83" t="s">
-        <v>2819</v>
-      </c>
-      <c r="U1" s="83" t="s">
-        <v>2820</v>
-      </c>
-      <c r="V1" s="83" t="s">
-        <v>2859</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>2821</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>2860</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>274</v>
@@ -59957,13 +59951,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -59972,7 +59966,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
@@ -59984,7 +59978,7 @@
         <v>280</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>37</v>
@@ -60029,10 +60023,10 @@
         <v>6</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>61</v>
@@ -60040,7 +60034,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -60055,7 +60049,7 @@
         <v>280</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>14</v>
@@ -60067,7 +60061,7 @@
         <v>280</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>37</v>
@@ -60079,19 +60073,19 @@
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>753</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>753</v>
@@ -60112,10 +60106,10 @@
         <v>6</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>61</v>
@@ -60123,7 +60117,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -60138,7 +60132,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
@@ -60150,7 +60144,7 @@
         <v>280</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>37</v>
@@ -60162,13 +60156,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>1848</v>
@@ -60195,10 +60189,10 @@
         <v>6</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>61</v>
@@ -60206,13 +60200,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -60221,7 +60215,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -60233,7 +60227,7 @@
         <v>280</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>37</v>
@@ -60245,10 +60239,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>26</v>
@@ -60278,10 +60272,10 @@
         <v>6</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>61</v>
@@ -60289,13 +60283,13 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -60304,7 +60298,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -60316,7 +60310,7 @@
         <v>280</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>37</v>
@@ -60328,13 +60322,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>1848</v>
@@ -60361,10 +60355,10 @@
         <v>6</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>61</v>
@@ -60372,13 +60366,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -60387,7 +60381,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -60399,7 +60393,7 @@
         <v>280</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>37</v>
@@ -60411,13 +60405,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>1848</v>
@@ -60444,10 +60438,10 @@
         <v>6</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>61</v>
@@ -60455,13 +60449,13 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -60470,7 +60464,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -60482,7 +60476,7 @@
         <v>280</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>37</v>
@@ -60494,13 +60488,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1848</v>
@@ -60527,10 +60521,10 @@
         <v>6</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>61</v>
@@ -60538,7 +60532,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -60551,7 +60545,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -60563,7 +60557,7 @@
         <v>280</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>37</v>
@@ -60575,13 +60569,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>1848</v>
@@ -60608,10 +60602,10 @@
         <v>172</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>61</v>
@@ -60619,13 +60613,13 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
@@ -60634,7 +60628,7 @@
         <v>670</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -60646,7 +60640,7 @@
         <v>352</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>37</v>
@@ -60658,13 +60652,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>1848</v>
@@ -60691,10 +60685,10 @@
         <v>6</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>61</v>
@@ -60702,13 +60696,13 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -60717,7 +60711,7 @@
         <v>524</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -60729,7 +60723,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>37</v>
@@ -60741,13 +60735,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>1848</v>
@@ -60774,10 +60768,10 @@
         <v>6</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>61</v>
@@ -60785,13 +60779,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -60800,7 +60794,7 @@
         <v>670</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
@@ -60812,7 +60806,7 @@
         <v>352</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>37</v>
@@ -60824,13 +60818,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>1848</v>
@@ -60857,10 +60851,10 @@
         <v>6</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>61</v>
@@ -60868,13 +60862,13 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -60883,7 +60877,7 @@
         <v>524</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -60895,7 +60889,7 @@
         <v>259</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>37</v>
@@ -60907,13 +60901,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>1848</v>
@@ -60940,10 +60934,10 @@
         <v>6</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>61</v>
@@ -60951,13 +60945,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -60966,7 +60960,7 @@
         <v>524</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>14</v>
@@ -61023,10 +61017,10 @@
         <v>6</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>61</v>

--- a/Data Files/Excel Files/Z-Connect.xlsx
+++ b/Data Files/Excel Files/Z-Connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Create Combined Statement" sheetId="22" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="3083">
   <si>
     <t>Y</t>
   </si>
@@ -9370,6 +9370,21 @@
   </si>
   <si>
     <t>2019-11-24</t>
+  </si>
+  <si>
+    <t>1170518</t>
+  </si>
+  <si>
+    <t>7.50000</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>6005101888</t>
+  </si>
+  <si>
+    <t>41030522505</t>
   </si>
 </sst>
 </file>
@@ -14621,8 +14636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14895,22 +14910,22 @@
         <v>2196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2201</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2202</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>6</v>
@@ -15036,7 +15051,7 @@
         <v>109</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>6</v>
+        <v>3078</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>109</v>
@@ -15057,13 +15072,13 @@
         <v>6</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="BE2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>2218</v>
+        <v>3079</v>
       </c>
       <c r="BG2" s="4" t="s">
         <v>6</v>
@@ -15084,7 +15099,7 @@
         <v>6</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>6</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -15092,22 +15107,22 @@
         <v>2197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2201</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2202</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>3082</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
@@ -15233,7 +15248,7 @@
         <v>109</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>6</v>
+        <v>3078</v>
       </c>
       <c r="AX3" s="4" t="s">
         <v>109</v>
@@ -15254,7 +15269,7 @@
         <v>6</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="BE3" s="4" t="s">
         <v>6</v>
@@ -15269,7 +15284,7 @@
         <v>6</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>6</v>
+        <v>3078</v>
       </c>
       <c r="BJ3" s="4" t="s">
         <v>6</v>
@@ -15289,22 +15304,22 @@
         <v>2198</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2201</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2202</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>3081</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -15430,7 +15445,7 @@
         <v>109</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>6</v>
+        <v>3078</v>
       </c>
       <c r="AX4" s="4" t="s">
         <v>109</v>
@@ -15451,7 +15466,7 @@
         <v>6</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="BE4" s="4" t="s">
         <v>6</v>
@@ -15466,7 +15481,7 @@
         <v>6</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>6</v>
+        <v>3078</v>
       </c>
       <c r="BJ4" s="4" t="s">
         <v>6</v>
@@ -15486,16 +15501,16 @@
         <v>2199</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2201</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2202</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
@@ -62881,7 +62896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Excel Files/Z-Connect.xlsx
+++ b/Data Files/Excel Files/Z-Connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="41" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Create Combined Statement" sheetId="22" r:id="rId1"/>
@@ -14636,8 +14636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BE17" sqref="BE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24701,7 +24701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
@@ -28969,8 +28969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29014,13 +29014,13 @@
         <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -33519,8 +33519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33812,13 +33812,13 @@
       <c r="AX2" s="55"/>
       <c r="AY2" s="58"/>
       <c r="AZ2" s="56" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="BA2" s="56" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="BB2" s="43" t="s">
-        <v>944</v>
+        <v>220</v>
       </c>
       <c r="BC2" s="43" t="s">
         <v>61</v>
@@ -33889,13 +33889,13 @@
       <c r="AX3" s="55"/>
       <c r="AY3" s="58"/>
       <c r="AZ3" s="56" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="BA3" s="56" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="BB3" s="43" t="s">
-        <v>944</v>
+        <v>220</v>
       </c>
       <c r="BC3" s="43" t="s">
         <v>61</v>
@@ -33983,16 +33983,16 @@
       <c r="AW4" s="55"/>
       <c r="AX4" s="55"/>
       <c r="AY4" s="58"/>
-      <c r="AZ4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA4" s="54" t="s">
-        <v>943</v>
-      </c>
-      <c r="BB4" s="55" t="s">
-        <v>944</v>
-      </c>
-      <c r="BC4" s="55" t="s">
+      <c r="AZ4" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA4" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB4" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC4" s="43" t="s">
         <v>61</v>
       </c>
       <c r="BD4" s="59"/>
@@ -34059,13 +34059,13 @@
       <c r="AX5" s="55"/>
       <c r="AY5" s="58"/>
       <c r="AZ5" s="56" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="BA5" s="56" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="BB5" s="43" t="s">
-        <v>944</v>
+        <v>220</v>
       </c>
       <c r="BC5" s="43" t="s">
         <v>61</v>
@@ -34148,13 +34148,13 @@
       <c r="AX6" s="55"/>
       <c r="AY6" s="58"/>
       <c r="AZ6" s="56" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="BA6" s="56" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="BB6" s="43" t="s">
-        <v>944</v>
+        <v>220</v>
       </c>
       <c r="BC6" s="43" t="s">
         <v>61</v>
@@ -43969,8 +43969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44555,14 +44555,14 @@
       <c r="O8" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>1993</v>
+      <c r="P8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>26</v>

--- a/Data Files/Excel Files/Z-Connect.xlsx
+++ b/Data Files/Excel Files/Z-Connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="50" activeTab="54"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="776" firstSheet="62" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="Create Combined Statement" sheetId="22" r:id="rId1"/>
@@ -35530,8 +35530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35809,10 +35809,10 @@
         <v>218</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>941</v>
+        <v>283</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>61</v>
@@ -35861,10 +35861,10 @@
         <v>218</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>475</v>
+        <v>938</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>476</v>
+        <v>283</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>61</v>
@@ -35967,13 +35967,13 @@
         <v>218</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>219</v>
+        <v>938</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -36020,13 +36020,13 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="17"/>
       <c r="S9" s="4" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>945</v>
+        <v>283</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>61</v>
@@ -39846,7 +39846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
@@ -43417,8 +43417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43716,10 +43716,10 @@
         <v>218</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>475</v>
+        <v>866</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>476</v>
+        <v>283</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>61</v>
@@ -43846,13 +43846,13 @@
         <v>218</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>219</v>
+        <v>866</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -43909,13 +43909,13 @@
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="4" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>944</v>
+        <v>866</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>945</v>
+        <v>283</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>61</v>
@@ -49840,8 +49840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50617,13 +50617,13 @@
         <v>2668</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>729</v>
+        <v>288</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>288</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>14</v>
